--- a/web-scraping/sites/amazon_co_uk/pages.xlsx
+++ b/web-scraping/sites/amazon_co_uk/pages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>url</t>
   </si>
@@ -22,10 +22,10 @@
     <t>browser_to_use</t>
   </si>
   <si>
-    <t>table_id</t>
-  </si>
-  <si>
-    <t>table_class</t>
+    <t>html_id_1</t>
+  </si>
+  <si>
+    <t>html_class_1</t>
   </si>
   <si>
     <t>https://www.amazon.co.uk/dp/B0CHX95F2H</t>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>chart</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/ref=nav_logo</t>
   </si>
 </sst>
 </file>
@@ -118,11 +115,11 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -429,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -470,32 +467,22 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web-scraping/sites/amazon_co_uk/pages.xlsx
+++ b/web-scraping/sites/amazon_co_uk/pages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>url</t>
   </si>
@@ -28,6 +28,9 @@
     <t>html_class_1</t>
   </si>
   <si>
+    <t>nickname</t>
+  </si>
+  <si>
     <t>https://www.amazon.co.uk/dp/B0CHX95F2H</t>
   </si>
   <si>
@@ -38,6 +41,15 @@
   </si>
   <si>
     <t>chart</t>
+  </si>
+  <si>
+    <t>iPhone_15_pink</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/dp/B0CHXFCYCR?th=1</t>
+  </si>
+  <si>
+    <t>iPhone_15_black</t>
   </si>
 </sst>
 </file>
@@ -101,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -111,12 +123,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -426,16 +432,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="8.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -451,38 +458,57 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
